--- a/energie_bedarf.xlsx
+++ b/energie_bedarf.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1ADE40-EFF6-C24A-B226-467C9DDF1B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193C52D-AF26-D947-A3CE-7430072DC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
     <sheet name="calculation-sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="viktor-output-sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="calculation-sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="viktor-output-sheet" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="79">
   <si>
     <t>Parameters</t>
   </si>
@@ -136,17 +159,152 @@
     <t>Anteil nutzbare Energie</t>
   </si>
   <si>
-    <t>hier Anpassung über weiteren Input erforderlich</t>
-  </si>
-  <si>
-    <t>Erträge erforderlich</t>
+    <t>Solarerträge</t>
+  </si>
+  <si>
+    <t>Ausrichtung</t>
+  </si>
+  <si>
+    <t>Neigung</t>
+  </si>
+  <si>
+    <t>Anteil  vom Optimum</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>25°</t>
+  </si>
+  <si>
+    <t>35°</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>55°</t>
+  </si>
+  <si>
+    <t>70°</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>Fläche der PV-Anlage (1)</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>Ausrichtung der Fläche (1)</t>
+  </si>
+  <si>
+    <t>Azimut1</t>
+  </si>
+  <si>
+    <t>Neigung der Fläche (1)</t>
+  </si>
+  <si>
+    <t>Neigung1</t>
+  </si>
+  <si>
+    <t>Fläche der PVT-Anlage (2)</t>
+  </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Ausrichtung der Fläche (2)</t>
+  </si>
+  <si>
+    <t>Azimut 2</t>
+  </si>
+  <si>
+    <t>Neigung der Fläche (2)</t>
+  </si>
+  <si>
+    <t>Neigung 2</t>
+  </si>
+  <si>
+    <t>Fläche der PV-Anlage (3)</t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Ausrichtung der Fläche (3)</t>
+  </si>
+  <si>
+    <t>Azimut 3</t>
+  </si>
+  <si>
+    <t>Fläche der PVT-Anlage (4)</t>
+  </si>
+  <si>
+    <t>Area 4</t>
+  </si>
+  <si>
+    <t>Ausrichtung der Fläche (4)</t>
+  </si>
+  <si>
+    <t>Azimut 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spez. Jährlicher Ertrag </t>
+  </si>
+  <si>
+    <t>solarthermischer Ertrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jährlicher Ertrag BIPV elektr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jährlicher Ertrag BIPVT elektr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jährlicher Ertrag BIPVT thermisch </t>
+  </si>
+  <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>Speicher</t>
+  </si>
+  <si>
+    <t>anteil nutzbar thermisch erforderlich</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Nord-Ost</t>
+  </si>
+  <si>
+    <t>Ost</t>
+  </si>
+  <si>
+    <t>Süd-Ost</t>
+  </si>
+  <si>
+    <t>Süd</t>
+  </si>
+  <si>
+    <t>Süd-West</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Nord-West</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +323,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,12 +363,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -510,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30113F01-ECE6-B041-A380-4F6A0E1B36D3}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +702,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,12 +716,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -548,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -556,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -567,9 +748,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -579,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,177 +966,320 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>'viktor-input-sheet'!D7</f>
+        <v>30</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
         <v>45</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'viktor-input-sheet'!D8</f>
+        <v>Süd</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'viktor-input-sheet'!D9</f>
+        <v>25°</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <f>'viktor-input-sheet'!D10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
+        <v>51</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'viktor-input-sheet'!D11</f>
+        <v>Süd</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'viktor-input-sheet'!D12</f>
+        <v>35°</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <f>'viktor-input-sheet'!D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'viktor-input-sheet'!D14</f>
+        <v>Süd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <f>'viktor-input-sheet'!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'viktor-input-sheet'!D16</f>
+        <v>Süd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <f>'viktor-input-sheet'!D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B13</f>
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B24">
         <v>2350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B25">
         <v>4040</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B26">
         <f>1650*3</f>
         <v>4950</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B27">
         <f>1500*4</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B28">
         <f>1400*5</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B29">
         <f>1350*6</f>
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B30">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B31" s="2">
         <v>0.3</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <f>1000*0.2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
-        <f>IF(B2="Bestandsgebäude",B9*B5,B8*B5)</f>
+      <c r="B36">
+        <f>IF(B2="Bestandsgebäude",B20*B5,B19*B5)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <f>IF(B3&gt;2,B3*B11,B4*B10)</f>
+      <c r="B37">
+        <f>IF(B3&gt;2,B3*B22,B4*B21)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
-        <f>IF(B3&gt;2,B3*B19,VLOOKUP(B4,A13:B18,2,0))</f>
+      <c r="B38">
+        <f>IF(B3&gt;2,B3*B30,VLOOKUP(B4,A24:B29,2,0))</f>
         <v>2350</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B28">
-        <f>SUM(B25:B27)</f>
+      <c r="B39">
+        <f>SUM(B36:B38)</f>
         <v>2895</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B40">
+        <f>IF(B17="ja",0.6,0.3)*(F19+F20)</f>
+        <v>1776.6</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B41">
+        <f>F19+F20-B40</f>
+        <v>4145.3999999999996</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>33</v>
+      <c r="B42">
+        <f>F21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -834,11 +1288,1412 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA37040-8FE9-9E4B-BF2D-787971EE4D1B}">
+  <dimension ref="A1:D117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>83.9</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8">
+        <v>83.9</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8">
+        <v>83.3</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8">
+        <v>83.3</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="8">
+        <v>80.7</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8">
+        <v>80.7</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="8">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="8">
+        <v>89</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="8">
+        <v>94.9</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="8">
+        <v>94.9</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="8">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="8">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="8">
+        <v>90</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="8">
+        <v>90</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="8">
+        <v>98.7</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="8">
+        <v>98.7</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="8">
+        <v>100</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8">
+        <v>100</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="8">
+        <v>99</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="8">
+        <v>99</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="8">
+        <v>96</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="8">
+        <v>96</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="8">
+        <v>87.6</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="8">
+        <v>87.6</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="8">
+        <v>89</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="8">
+        <v>89</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="8">
+        <v>94.9</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="8">
+        <v>94.9</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="8">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="8">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="8">
+        <v>83.3</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="8">
+        <v>83.3</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="8">
+        <v>80.7</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="8">
+        <v>80.7</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="8">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="8">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="8">
+        <v>83.9</v>
+      </c>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="8">
+        <v>83.9</v>
+      </c>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71210A1-286B-9C46-A549-1E7A5CFEB5D3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,7 +2723,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <f>'calculation-sheet'!B25</f>
+        <f>'calculation-sheet'!B36</f>
         <v>45</v>
       </c>
     </row>
@@ -880,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <f>'calculation-sheet'!B26</f>
+        <f>'calculation-sheet'!B37</f>
         <v>500</v>
       </c>
     </row>
@@ -892,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <f>'calculation-sheet'!B27</f>
+        <f>'calculation-sheet'!B38</f>
         <v>2350</v>
       </c>
     </row>
@@ -904,8 +2759,44 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <f>'calculation-sheet'!B28</f>
+        <f>'calculation-sheet'!B39</f>
         <v>2895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <f>'calculation-sheet'!B40</f>
+        <v>1776.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <f>'calculation-sheet'!B41</f>
+        <v>4145.3999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f>'calculation-sheet'!B42</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/energie_bedarf.xlsx
+++ b/energie_bedarf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/Masterarbeit/Viktor.ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193C52D-AF26-D947-A3CE-7430072DC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FD838-2151-2943-9150-3593DCAA53B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="78">
   <si>
     <t>Parameters</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Speicher</t>
-  </si>
-  <si>
-    <t>anteil nutzbar thermisch erforderlich</t>
   </si>
   <si>
     <t>Nord</t>
@@ -772,7 +769,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -808,7 +805,7 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -844,7 +841,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -869,7 +866,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -893,12 +890,13 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1275,12 +1273,10 @@
         <v>22</v>
       </c>
       <c r="B42">
-        <f>F21*0.3</f>
+        <f>IF(F21&lt;(B36+B37)*0.6,F21,(B36+B37)*0.6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1291,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA37040-8FE9-9E4B-BF2D-787971EE4D1B}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1321,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -1337,7 +1333,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>36</v>
@@ -1349,7 +1345,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>37</v>
@@ -1361,7 +1357,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>37</v>
@@ -1373,7 +1369,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -1385,7 +1381,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -1397,7 +1393,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>39</v>
@@ -1409,7 +1405,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>39</v>
@@ -1421,7 +1417,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>40</v>
@@ -1433,7 +1429,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -1445,7 +1441,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -1457,7 +1453,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>41</v>
@@ -1469,7 +1465,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>42</v>
@@ -1481,7 +1477,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>42</v>
@@ -1493,7 +1489,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>36</v>
@@ -1505,7 +1501,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>36</v>
@@ -1517,7 +1513,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
@@ -1529,7 +1525,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>37</v>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
@@ -1553,7 +1549,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -1565,7 +1561,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>39</v>
@@ -1577,7 +1573,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>39</v>
@@ -1589,7 +1585,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>40</v>
@@ -1601,7 +1597,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>40</v>
@@ -1613,7 +1609,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>41</v>
@@ -1625,7 +1621,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>41</v>
@@ -1637,7 +1633,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>42</v>
@@ -1649,7 +1645,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>42</v>
@@ -1661,7 +1657,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>36</v>
@@ -1673,7 +1669,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>36</v>
@@ -1685,7 +1681,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>37</v>
@@ -1697,7 +1693,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>37</v>
@@ -1709,7 +1705,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>38</v>
@@ -1721,7 +1717,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>38</v>
@@ -1733,7 +1729,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>39</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>39</v>
@@ -1757,7 +1753,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>40</v>
@@ -1769,7 +1765,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>40</v>
@@ -1781,7 +1777,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>41</v>
@@ -1793,7 +1789,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>41</v>
@@ -1805,7 +1801,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>42</v>
@@ -1817,7 +1813,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>42</v>
@@ -1829,7 +1825,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>36</v>
@@ -1841,7 +1837,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>36</v>
@@ -1853,7 +1849,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>37</v>
@@ -1865,7 +1861,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>37</v>
@@ -1877,7 +1873,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>38</v>
@@ -1889,7 +1885,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -1901,7 +1897,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>39</v>
@@ -1913,7 +1909,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>39</v>
@@ -1925,7 +1921,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>40</v>
@@ -1937,7 +1933,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>40</v>
@@ -1949,7 +1945,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>41</v>
@@ -1961,7 +1957,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>41</v>
@@ -1973,7 +1969,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>42</v>
@@ -1985,7 +1981,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>42</v>
@@ -1997,7 +1993,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>36</v>
@@ -2009,7 +2005,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>36</v>
@@ -2021,7 +2017,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>37</v>
@@ -2033,7 +2029,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>37</v>
@@ -2045,7 +2041,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>38</v>
@@ -2057,7 +2053,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>38</v>
@@ -2069,7 +2065,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>39</v>
@@ -2081,7 +2077,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>39</v>
@@ -2093,7 +2089,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>40</v>
@@ -2105,7 +2101,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>40</v>
@@ -2117,7 +2113,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>41</v>
@@ -2129,7 +2125,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>41</v>
@@ -2141,7 +2137,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>42</v>
@@ -2153,7 +2149,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>42</v>
@@ -2165,7 +2161,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>36</v>
@@ -2177,7 +2173,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>36</v>
@@ -2189,7 +2185,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>37</v>
@@ -2201,7 +2197,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>37</v>
@@ -2213,7 +2209,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>38</v>
@@ -2225,7 +2221,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>38</v>
@@ -2237,7 +2233,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>39</v>
@@ -2249,7 +2245,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>39</v>
@@ -2261,7 +2257,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>40</v>
@@ -2273,7 +2269,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>40</v>
@@ -2285,7 +2281,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>41</v>
@@ -2297,7 +2293,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>41</v>
@@ -2309,7 +2305,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>42</v>
@@ -2321,7 +2317,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>42</v>
@@ -2333,7 +2329,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>36</v>
@@ -2345,7 +2341,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>36</v>
@@ -2357,7 +2353,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>37</v>
@@ -2369,7 +2365,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>37</v>
@@ -2381,7 +2377,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>38</v>
@@ -2393,7 +2389,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>38</v>
@@ -2405,7 +2401,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>39</v>
@@ -2417,7 +2413,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>39</v>
@@ -2429,7 +2425,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>40</v>
@@ -2441,7 +2437,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>40</v>
@@ -2453,7 +2449,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>41</v>
@@ -2465,7 +2461,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>41</v>
@@ -2477,7 +2473,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>42</v>
@@ -2489,7 +2485,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>42</v>
@@ -2501,7 +2497,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>36</v>
@@ -2513,7 +2509,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>36</v>
@@ -2525,7 +2521,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>37</v>
@@ -2537,7 +2533,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>37</v>
@@ -2549,7 +2545,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>38</v>
@@ -2561,7 +2557,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>38</v>
@@ -2573,7 +2569,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>39</v>
@@ -2585,7 +2581,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>39</v>
@@ -2597,7 +2593,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>40</v>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>40</v>
@@ -2621,7 +2617,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>41</v>
@@ -2633,7 +2629,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>41</v>
@@ -2645,7 +2641,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>42</v>
@@ -2657,7 +2653,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>42</v>

--- a/energie_bedarf.xlsx
+++ b/energie_bedarf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/Masterarbeit/Viktor.ai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FD838-2151-2943-9150-3593DCAA53B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D28DBEB-4B00-8F4C-9B17-97FF83CE934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Neubau</t>
   </si>
   <si>
-    <t>Bestandsgebäude</t>
-  </si>
-  <si>
     <t>Sanierung</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Nord-West</t>
+  </si>
+  <si>
+    <t>Bestand</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30113F01-ECE6-B041-A380-4F6A0E1B36D3}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -739,145 +739,142 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -889,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,15 +913,15 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>'viktor-input-sheet'!D3</f>
@@ -933,7 +930,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>'viktor-input-sheet'!D4</f>
@@ -946,36 +943,36 @@
       </c>
       <c r="B5">
         <f>'viktor-input-sheet'!D5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f>'viktor-input-sheet'!D6</f>
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <f>'viktor-input-sheet'!D7</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="str">
         <f>'viktor-input-sheet'!D8</f>
@@ -984,7 +981,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="str">
         <f>'viktor-input-sheet'!D9</f>
@@ -993,7 +990,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <f>'viktor-input-sheet'!D10</f>
@@ -1002,7 +999,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="str">
         <f>'viktor-input-sheet'!D11</f>
@@ -1011,7 +1008,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="str">
         <f>'viktor-input-sheet'!D12</f>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <f>'viktor-input-sheet'!D13</f>
@@ -1029,7 +1026,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="str">
         <f>'viktor-input-sheet'!D14</f>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <f>'viktor-input-sheet'!D15</f>
@@ -1047,7 +1044,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="str">
         <f>'viktor-input-sheet'!D16</f>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <f>'viktor-input-sheet'!D17</f>
@@ -1065,28 +1062,28 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B13</f>
-        <v>5922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B15</f>
@@ -1095,13 +1092,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>500</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B15</f>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,7 +1172,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>3000</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>0.3</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <f>1000*0.2</f>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>710</v>
@@ -1214,16 +1211,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <f>IF(B2="Bestandsgebäude",B20*B5,B19*B5)</f>
-        <v>45</v>
+        <f>IF(B2="Bestand",B20*B5,B19*B5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <f>IF(B3&gt;2,B3*B22,B4*B21)</f>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <f>IF(B3&gt;2,B3*B30,VLOOKUP(B4,A24:B29,2,0))</f>
@@ -1241,36 +1238,36 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <f>SUM(B36:B38)</f>
-        <v>2895</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <f>IF(B17="ja",0.6,0.3)*(F19+F20)</f>
-        <v>1776.6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <f>F19+F20-B40</f>
-        <v>4145.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <f>IF(F21&lt;(B36+B37)*0.6,F21,(B36+B37)*0.6)</f>
@@ -1295,7 +1292,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1309,22 +1306,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8">
         <v>82.7</v>
@@ -1333,10 +1330,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8">
         <v>82.7</v>
@@ -1345,10 +1342,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8">
         <v>64.8</v>
@@ -1357,10 +1354,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8">
         <v>64.8</v>
@@ -1369,10 +1366,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8">
         <v>56.3</v>
@@ -1381,10 +1378,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8">
         <v>56.3</v>
@@ -1393,10 +1390,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8">
         <v>48.1</v>
@@ -1405,10 +1402,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <v>48.1</v>
@@ -1417,10 +1414,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8">
         <v>41</v>
@@ -1429,10 +1426,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8">
         <v>41</v>
@@ -1441,10 +1438,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8">
         <v>33.700000000000003</v>
@@ -1453,10 +1450,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8">
         <v>33.700000000000003</v>
@@ -1465,10 +1462,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8">
         <v>28.7</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8">
         <v>28.7</v>
@@ -1489,10 +1486,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8">
         <v>83.9</v>
@@ -1501,10 +1498,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8">
         <v>83.9</v>
@@ -1513,10 +1510,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8">
         <v>70.400000000000006</v>
@@ -1525,10 +1522,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8">
         <v>70.400000000000006</v>
@@ -1537,10 +1534,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8">
         <v>63.5</v>
@@ -1549,10 +1546,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8">
         <v>63.5</v>
@@ -1561,10 +1558,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8">
         <v>57.3</v>
@@ -1573,10 +1570,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8">
         <v>57.3</v>
@@ -1585,10 +1582,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="8">
         <v>52.1</v>
@@ -1597,10 +1594,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8">
         <v>52.1</v>
@@ -1609,10 +1606,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="8">
         <v>45.5</v>
@@ -1621,10 +1618,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8">
         <v>45.5</v>
@@ -1633,10 +1630,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8">
         <v>37.6</v>
@@ -1645,10 +1642,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>37.6</v>
@@ -1657,10 +1654,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8">
         <v>86.4</v>
@@ -1669,10 +1666,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>86.4</v>
@@ -1681,10 +1678,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8">
         <v>83.3</v>
@@ -1693,10 +1690,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="8">
         <v>83.3</v>
@@ -1705,10 +1702,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8">
         <v>80.7</v>
@@ -1717,10 +1714,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8">
         <v>80.7</v>
@@ -1729,10 +1726,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="8">
         <v>77.5</v>
@@ -1741,10 +1738,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8">
         <v>77.5</v>
@@ -1753,10 +1750,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="8">
         <v>73.599999999999994</v>
@@ -1765,10 +1762,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="8">
         <v>73.599999999999994</v>
@@ -1777,10 +1774,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="8">
         <v>66.599999999999994</v>
@@ -1789,10 +1786,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="8">
         <v>66.599999999999994</v>
@@ -1801,10 +1798,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="8">
         <v>55.3</v>
@@ -1813,10 +1810,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="8">
         <v>55.3</v>
@@ -1825,10 +1822,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="8">
         <v>89</v>
@@ -1837,10 +1834,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="8">
         <v>89</v>
@@ -1849,10 +1846,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="8">
         <v>94.6</v>
@@ -1861,10 +1858,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="8">
         <v>94.6</v>
@@ -1873,10 +1870,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="8">
         <v>94.9</v>
@@ -1885,10 +1882,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="8">
         <v>94.9</v>
@@ -1897,10 +1894,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="8">
         <v>93.6</v>
@@ -1909,10 +1906,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8">
         <v>93.6</v>
@@ -1921,10 +1918,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="8">
         <v>90.4</v>
@@ -1933,10 +1930,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="8">
         <v>90.4</v>
@@ -1945,10 +1942,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="8">
         <v>82.8</v>
@@ -1957,10 +1954,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="8">
         <v>82.8</v>
@@ -1969,10 +1966,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="8">
         <v>68.099999999999994</v>
@@ -1981,10 +1978,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="8">
         <v>68.099999999999994</v>
@@ -1993,10 +1990,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="8">
         <v>90</v>
@@ -2005,10 +2002,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="8">
         <v>90</v>
@@ -2017,10 +2014,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="8">
         <v>98.7</v>
@@ -2029,10 +2026,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="8">
         <v>98.7</v>
@@ -2041,10 +2038,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="8">
         <v>100</v>
@@ -2053,10 +2050,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" s="8">
         <v>100</v>
@@ -2065,10 +2062,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="8">
         <v>99</v>
@@ -2077,10 +2074,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="8">
         <v>99</v>
@@ -2089,10 +2086,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="8">
         <v>96</v>
@@ -2101,10 +2098,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="8">
         <v>96</v>
@@ -2113,10 +2110,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="8">
         <v>87.6</v>
@@ -2125,10 +2122,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="8">
         <v>87.6</v>
@@ -2137,10 +2134,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="8">
         <v>70.599999999999994</v>
@@ -2149,10 +2146,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="8">
         <v>70.599999999999994</v>
@@ -2161,10 +2158,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="8">
         <v>89</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="8">
         <v>89</v>
@@ -2185,10 +2182,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="8">
         <v>94.6</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="8">
         <v>94.6</v>
@@ -2209,10 +2206,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="8">
         <v>94.9</v>
@@ -2221,10 +2218,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="8">
         <v>94.9</v>
@@ -2233,10 +2230,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="8">
         <v>93.6</v>
@@ -2245,10 +2242,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="8">
         <v>93.6</v>
@@ -2257,10 +2254,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="8">
         <v>90.4</v>
@@ -2269,10 +2266,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="8">
         <v>90.4</v>
@@ -2281,10 +2278,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" s="8">
         <v>82.8</v>
@@ -2293,10 +2290,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="8">
         <v>82.8</v>
@@ -2305,10 +2302,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="8">
         <v>68.099999999999994</v>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="8">
         <v>68.099999999999994</v>
@@ -2329,10 +2326,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="8">
         <v>86.4</v>
@@ -2341,10 +2338,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="8">
         <v>86.4</v>
@@ -2353,10 +2350,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="8">
         <v>83.3</v>
@@ -2365,10 +2362,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="8">
         <v>83.3</v>
@@ -2377,10 +2374,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" s="8">
         <v>80.7</v>
@@ -2389,10 +2386,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="8">
         <v>80.7</v>
@@ -2401,10 +2398,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="8">
         <v>77.5</v>
@@ -2413,10 +2410,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="8">
         <v>77.5</v>
@@ -2425,10 +2422,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="8">
         <v>73.599999999999994</v>
@@ -2437,10 +2434,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="8">
         <v>73.599999999999994</v>
@@ -2449,10 +2446,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" s="8">
         <v>66.599999999999994</v>
@@ -2461,10 +2458,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C99" s="8">
         <v>66.599999999999994</v>
@@ -2473,10 +2470,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="8">
         <v>55.3</v>
@@ -2485,10 +2482,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="8">
         <v>55.3</v>
@@ -2497,10 +2494,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="8">
         <v>83.9</v>
@@ -2509,10 +2506,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="8">
         <v>83.9</v>
@@ -2521,10 +2518,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104" s="8">
         <v>70.400000000000006</v>
@@ -2533,10 +2530,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105" s="8">
         <v>70.400000000000006</v>
@@ -2545,10 +2542,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C106" s="8">
         <v>63.5</v>
@@ -2557,10 +2554,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C107" s="8">
         <v>63.5</v>
@@ -2569,10 +2566,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C108" s="8">
         <v>57.3</v>
@@ -2581,10 +2578,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" s="8">
         <v>57.3</v>
@@ -2593,10 +2590,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" s="8">
         <v>52.1</v>
@@ -2605,10 +2602,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="8">
         <v>52.1</v>
@@ -2617,10 +2614,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="8">
         <v>45.5</v>
@@ -2629,10 +2626,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="8">
         <v>45.5</v>
@@ -2641,10 +2638,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="8">
         <v>37.6</v>
@@ -2653,10 +2650,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" s="8">
         <v>37.6</v>
@@ -2713,22 +2710,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <f>'calculation-sheet'!B36</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <f>'calculation-sheet'!B37</f>
@@ -2737,10 +2734,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <f>'calculation-sheet'!B38</f>
@@ -2749,46 +2746,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <f>'calculation-sheet'!B39</f>
-        <v>2895</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <f>'calculation-sheet'!B40</f>
-        <v>1776.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f>'calculation-sheet'!B41</f>
-        <v>4145.3999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <f>'calculation-sheet'!B42</f>

--- a/energie_bedarf.xlsx
+++ b/energie_bedarf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D28DBEB-4B00-8F4C-9B17-97FF83CE934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E04E27-6585-B74E-9AD1-096E615BE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="83">
   <si>
     <t>Parameters</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Heizöl</t>
   </si>
   <si>
-    <t>Jahresenergiebedarf_Wärme</t>
-  </si>
-  <si>
-    <t>Jahresenergiebedarf_TWW</t>
-  </si>
-  <si>
     <t>Jahresenergiebedarf_Strom</t>
   </si>
   <si>
@@ -295,6 +289,27 @@
   </si>
   <si>
     <t>Bestand</t>
+  </si>
+  <si>
+    <t>JEB_Wärme</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>JEB_Strom</t>
+  </si>
+  <si>
+    <t>JEB_wärme</t>
+  </si>
+  <si>
+    <t>Jahresenergiebedarf_WärmeTWW</t>
+  </si>
+  <si>
+    <t>Wärme</t>
+  </si>
+  <si>
+    <t>TWW</t>
   </si>
 </sst>
 </file>
@@ -688,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30113F01-ECE6-B041-A380-4F6A0E1B36D3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,132 +764,154 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -884,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -963,7 +1000,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <f>'viktor-input-sheet'!D7</f>
@@ -972,7 +1009,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f>'viktor-input-sheet'!D8</f>
@@ -981,7 +1018,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="str">
         <f>'viktor-input-sheet'!D9</f>
@@ -990,7 +1027,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <f>'viktor-input-sheet'!D10</f>
@@ -999,7 +1036,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="str">
         <f>'viktor-input-sheet'!D11</f>
@@ -1008,7 +1045,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="str">
         <f>'viktor-input-sheet'!D12</f>
@@ -1017,7 +1054,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <f>'viktor-input-sheet'!D13</f>
@@ -1026,7 +1063,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="str">
         <f>'viktor-input-sheet'!D14</f>
@@ -1035,7 +1072,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <f>'viktor-input-sheet'!D15</f>
@@ -1044,7 +1081,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="str">
         <f>'viktor-input-sheet'!D16</f>
@@ -1053,227 +1090,250 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <f>'viktor-input-sheet'!D17</f>
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <f>'viktor-input-sheet'!D18</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B15</f>
+        <f>'viktor-input-sheet'!D19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F21" cm="1">
-        <f t="array" ref="F21">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B15</f>
+        <f t="array" ref="F21">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B13</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>2350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>4040</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <f>IF(B2="Bestand",B22*B5,B21*B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4040</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <f>IF(B3&gt;2,B24*B3,B23*B4)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <f>1650*3</f>
         <v>4950</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <f>1500*4</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <f>1400*5</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <f>1350*6</f>
         <v>8100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
         <f>1000*0.2</f>
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
         <v>710</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <f>IF(B2="Bestand",B20*B5,B19*B5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <f>IF(B3&gt;2,B3*B22,B4*B21)</f>
-        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B38">
-        <f>IF(B3&gt;2,B3*B30,VLOOKUP(B4,A24:B29,2,0))</f>
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <f>SUM(B36:B38)</f>
-        <v>2850</v>
+        <f>IF(B18=0,E26+E27,B18)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <f>IF(B17="ja",0.6,0.3)*(F19+F20)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3"/>
+        <f>IF(B19=0,IF(B3&gt;2,B3*B32,VLOOKUP(B4,A26:B31,2,0)),B19)</f>
+        <v>2350</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <f>F19+F20-B40</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3"/>
+        <f>SUM(B38:B40)</f>
+        <v>2850</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <f>IF(F21&lt;(B36+B37)*0.6,F21,(B36+B37)*0.6)</f>
+        <f>IF(B17="ja",0.6,0.3)*(F21+F22)</f>
         <v>0</v>
       </c>
       <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <f>F21+F22-B42</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <f>IF(F23&lt;(B38+B39)*0.6,F23,(B38+B39)*0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1292,7 +1352,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1306,22 +1366,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8">
         <v>82.7</v>
@@ -1330,10 +1390,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8">
         <v>82.7</v>
@@ -1342,10 +1402,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <v>64.8</v>
@@ -1354,10 +1414,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8">
         <v>64.8</v>
@@ -1366,10 +1426,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8">
         <v>56.3</v>
@@ -1378,10 +1438,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8">
         <v>56.3</v>
@@ -1390,10 +1450,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8">
         <v>48.1</v>
@@ -1402,10 +1462,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8">
         <v>48.1</v>
@@ -1414,10 +1474,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8">
         <v>41</v>
@@ -1426,10 +1486,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>41</v>
@@ -1438,10 +1498,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8">
         <v>33.700000000000003</v>
@@ -1450,10 +1510,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8">
         <v>33.700000000000003</v>
@@ -1462,10 +1522,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>28.7</v>
@@ -1474,10 +1534,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8">
         <v>28.7</v>
@@ -1486,10 +1546,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8">
         <v>83.9</v>
@@ -1498,10 +1558,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8">
         <v>83.9</v>
@@ -1510,10 +1570,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8">
         <v>70.400000000000006</v>
@@ -1522,10 +1582,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8">
         <v>70.400000000000006</v>
@@ -1534,10 +1594,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8">
         <v>63.5</v>
@@ -1546,10 +1606,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8">
         <v>63.5</v>
@@ -1558,10 +1618,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8">
         <v>57.3</v>
@@ -1570,10 +1630,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8">
         <v>57.3</v>
@@ -1582,10 +1642,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="8">
         <v>52.1</v>
@@ -1594,10 +1654,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8">
         <v>52.1</v>
@@ -1606,10 +1666,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8">
         <v>45.5</v>
@@ -1618,10 +1678,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8">
         <v>45.5</v>
@@ -1630,10 +1690,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="8">
         <v>37.6</v>
@@ -1642,10 +1702,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8">
         <v>37.6</v>
@@ -1654,10 +1714,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="8">
         <v>86.4</v>
@@ -1666,10 +1726,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8">
         <v>86.4</v>
@@ -1678,10 +1738,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8">
         <v>83.3</v>
@@ -1690,10 +1750,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="8">
         <v>83.3</v>
@@ -1702,10 +1762,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="8">
         <v>80.7</v>
@@ -1714,10 +1774,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="8">
         <v>80.7</v>
@@ -1726,10 +1786,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8">
         <v>77.5</v>
@@ -1738,10 +1798,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="8">
         <v>77.5</v>
@@ -1750,10 +1810,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="8">
         <v>73.599999999999994</v>
@@ -1762,10 +1822,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="8">
         <v>73.599999999999994</v>
@@ -1774,10 +1834,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="8">
         <v>66.599999999999994</v>
@@ -1786,10 +1846,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="8">
         <v>66.599999999999994</v>
@@ -1798,10 +1858,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="8">
         <v>55.3</v>
@@ -1810,10 +1870,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="8">
         <v>55.3</v>
@@ -1822,10 +1882,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C46" s="8">
         <v>89</v>
@@ -1834,10 +1894,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="8">
         <v>89</v>
@@ -1846,10 +1906,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" s="8">
         <v>94.6</v>
@@ -1858,10 +1918,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="8">
         <v>94.6</v>
@@ -1870,10 +1930,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" s="8">
         <v>94.9</v>
@@ -1882,10 +1942,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="8">
         <v>94.9</v>
@@ -1894,10 +1954,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" s="8">
         <v>93.6</v>
@@ -1906,10 +1966,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="8">
         <v>93.6</v>
@@ -1918,10 +1978,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="8">
         <v>90.4</v>
@@ -1930,10 +1990,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="8">
         <v>90.4</v>
@@ -1942,10 +2002,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" s="8">
         <v>82.8</v>
@@ -1954,10 +2014,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="8">
         <v>82.8</v>
@@ -1966,10 +2026,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="8">
         <v>68.099999999999994</v>
@@ -1978,10 +2038,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C59" s="8">
         <v>68.099999999999994</v>
@@ -1990,10 +2050,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" s="8">
         <v>90</v>
@@ -2002,10 +2062,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="8">
         <v>90</v>
@@ -2014,10 +2074,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" s="8">
         <v>98.7</v>
@@ -2026,10 +2086,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="8">
         <v>98.7</v>
@@ -2038,10 +2098,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C64" s="8">
         <v>100</v>
@@ -2050,10 +2110,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65" s="8">
         <v>100</v>
@@ -2062,10 +2122,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66" s="8">
         <v>99</v>
@@ -2074,10 +2134,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" s="8">
         <v>99</v>
@@ -2086,10 +2146,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C68" s="8">
         <v>96</v>
@@ -2098,10 +2158,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69" s="8">
         <v>96</v>
@@ -2110,10 +2170,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70" s="8">
         <v>87.6</v>
@@ -2122,10 +2182,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="8">
         <v>87.6</v>
@@ -2134,10 +2194,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C72" s="8">
         <v>70.599999999999994</v>
@@ -2146,10 +2206,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73" s="8">
         <v>70.599999999999994</v>
@@ -2158,10 +2218,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="8">
         <v>89</v>
@@ -2170,10 +2230,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" s="8">
         <v>89</v>
@@ -2182,10 +2242,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C76" s="8">
         <v>94.6</v>
@@ -2194,10 +2254,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C77" s="8">
         <v>94.6</v>
@@ -2206,10 +2266,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" s="8">
         <v>94.9</v>
@@ -2218,10 +2278,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C79" s="8">
         <v>94.9</v>
@@ -2230,10 +2290,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80" s="8">
         <v>93.6</v>
@@ -2242,10 +2302,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C81" s="8">
         <v>93.6</v>
@@ -2254,10 +2314,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C82" s="8">
         <v>90.4</v>
@@ -2266,10 +2326,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C83" s="8">
         <v>90.4</v>
@@ -2278,10 +2338,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C84" s="8">
         <v>82.8</v>
@@ -2290,10 +2350,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C85" s="8">
         <v>82.8</v>
@@ -2302,10 +2362,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C86" s="8">
         <v>68.099999999999994</v>
@@ -2314,10 +2374,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C87" s="8">
         <v>68.099999999999994</v>
@@ -2326,10 +2386,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="8">
         <v>86.4</v>
@@ -2338,10 +2398,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="8">
         <v>86.4</v>
@@ -2350,10 +2410,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" s="8">
         <v>83.3</v>
@@ -2362,10 +2422,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91" s="8">
         <v>83.3</v>
@@ -2374,10 +2434,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" s="8">
         <v>80.7</v>
@@ -2386,10 +2446,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C93" s="8">
         <v>80.7</v>
@@ -2398,10 +2458,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="8">
         <v>77.5</v>
@@ -2410,10 +2470,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95" s="8">
         <v>77.5</v>
@@ -2422,10 +2482,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96" s="8">
         <v>73.599999999999994</v>
@@ -2434,10 +2494,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C97" s="8">
         <v>73.599999999999994</v>
@@ -2446,10 +2506,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C98" s="8">
         <v>66.599999999999994</v>
@@ -2458,10 +2518,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" s="8">
         <v>66.599999999999994</v>
@@ -2470,10 +2530,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C100" s="8">
         <v>55.3</v>
@@ -2482,10 +2542,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C101" s="8">
         <v>55.3</v>
@@ -2494,10 +2554,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" s="8">
         <v>83.9</v>
@@ -2506,10 +2566,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" s="8">
         <v>83.9</v>
@@ -2518,10 +2578,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="8">
         <v>70.400000000000006</v>
@@ -2530,10 +2590,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C105" s="8">
         <v>70.400000000000006</v>
@@ -2542,10 +2602,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106" s="8">
         <v>63.5</v>
@@ -2554,10 +2614,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107" s="8">
         <v>63.5</v>
@@ -2566,10 +2626,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C108" s="8">
         <v>57.3</v>
@@ -2578,10 +2638,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" s="8">
         <v>57.3</v>
@@ -2590,10 +2650,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C110" s="8">
         <v>52.1</v>
@@ -2602,10 +2662,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C111" s="8">
         <v>52.1</v>
@@ -2614,10 +2674,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C112" s="8">
         <v>45.5</v>
@@ -2626,10 +2686,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C113" s="8">
         <v>45.5</v>
@@ -2638,10 +2698,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C114" s="8">
         <v>37.6</v>
@@ -2650,10 +2710,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C115" s="8">
         <v>37.6</v>
@@ -2683,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71210A1-286B-9C46-A549-1E7A5CFEB5D3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,85 +2770,73 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <f>'calculation-sheet'!B36</f>
-        <v>0</v>
+        <f>'calculation-sheet'!B38</f>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <f>'calculation-sheet'!B37</f>
-        <v>500</v>
+        <f>'calculation-sheet'!B40</f>
+        <v>2350</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <f>'calculation-sheet'!B38</f>
-        <v>2350</v>
+        <f>'calculation-sheet'!B41</f>
+        <v>2850</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <f>'calculation-sheet'!B39</f>
-        <v>2850</v>
+        <f>'calculation-sheet'!B42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <f>'calculation-sheet'!B40</f>
+        <f>'calculation-sheet'!B43</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <f>'calculation-sheet'!B41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <f>'calculation-sheet'!B42</f>
+        <f>'calculation-sheet'!B44</f>
         <v>0</v>
       </c>
     </row>
